--- a/src/test/resources/cleartrip.xlsx
+++ b/src/test/resources/cleartrip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huber\eclipse-workspace\cleartrip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C65AD-798C-43B8-A916-8CB0204CF3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18936D2B-F3F6-463B-B62D-B35B5A4A1DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{71EEC077-A786-4652-84C2-05A41297210A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{71EEC077-A786-4652-84C2-05A41297210A}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Username</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>sibisiibi@gmail.com</t>
+  </si>
+  <si>
+    <t>10/June/2021</t>
+  </si>
+  <si>
+    <t>Typee</t>
+  </si>
+  <si>
+    <t>Train</t>
   </si>
 </sst>
 </file>
@@ -688,10 +697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444F496E-E4DB-44BE-A3E3-21E9EADF2060}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,9 +711,10 @@
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="34.140625" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -771,8 +781,11 @@
       <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>72</v>
@@ -838,6 +851,9 @@
       </c>
       <c r="V2" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D278057-53EF-4D3A-A91C-5366BA830930}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
